--- a/ancient_foods.xlsx
+++ b/ancient_foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProFile\L3303\Desktop\創意從這開始\115社會科交接\歷史\Hismap\樣章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D285F9-E124-4FBF-B030-72C32D73C6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A63DCA-641E-423A-88FD-774CB86E43A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="西元前20000年" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="935">
   <si>
     <t>地區</t>
   </si>
@@ -1166,10 +1166,6 @@
   </si>
   <si>
     <t>歷史的變遷，讓江浙菜融合了南北風味。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中國長江下游江浙地區</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4931,18 +4927,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中國麵食</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>馬來西亞；新加坡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>台灣西南部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>台灣北部</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4972,6 +4960,10 @@
   </si>
   <si>
     <t>台灣台北；台灣高雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中國麵食的普及</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5720,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5741,7 +5733,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="110.25">
@@ -5761,16 +5753,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -5782,7 +5774,7 @@
         <v>232</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>175</v>
@@ -5794,16 +5786,16 @@
         <v>166</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K3">
         <f>LEN(F3)</f>
@@ -5849,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5870,7 +5862,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="173.25">
@@ -5878,10 +5870,10 @@
         <v>51</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>252</v>
@@ -5890,16 +5882,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>435</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="157.5">
@@ -5910,7 +5902,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>253</v>
@@ -5919,16 +5911,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>437</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="204.75">
@@ -5939,7 +5931,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>254</v>
@@ -5948,17 +5940,17 @@
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
@@ -5969,7 +5961,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>49</v>
@@ -5978,17 +5970,17 @@
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="220.5">
@@ -5999,7 +5991,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>255</v>
@@ -6008,16 +6000,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>439</v>
-      </c>
       <c r="I6" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="173.25">
@@ -6028,7 +6020,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>256</v>
@@ -6037,19 +6029,19 @@
         <v>9</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>547</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="177" customHeight="1">
@@ -6060,7 +6052,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>257</v>
@@ -6073,13 +6065,13 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="10" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="204.75">
@@ -6090,7 +6082,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>258</v>
@@ -6099,16 +6091,16 @@
         <v>36</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>442</v>
-      </c>
       <c r="I9" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6292,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6499,7 +6491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A966D2E-25D4-444C-8147-00D328CE9929}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6525,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6546,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="189">
@@ -6554,7 +6546,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>56</v>
@@ -6566,19 +6558,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>719</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>823</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>720</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>824</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -6593,7 +6585,7 @@
         <v>71</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>260</v>
@@ -6605,13 +6597,13 @@
         <v>97</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="0">LEN(F3)</f>
@@ -6623,10 +6615,10 @@
         <v>88</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>261</v>
@@ -6638,13 +6630,13 @@
         <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -6656,10 +6648,10 @@
         <v>89</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>262</v>
@@ -6668,16 +6660,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="H5" t="s">
         <v>445</v>
       </c>
-      <c r="H5" t="s">
-        <v>446</v>
-      </c>
       <c r="I5" s="24" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -6689,10 +6681,10 @@
         <v>90</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>91</v>
@@ -6704,13 +6696,13 @@
         <v>98</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I6" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>821</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>822</v>
       </c>
       <c r="K6">
         <f>LEN(F6)</f>
@@ -6725,28 +6717,28 @@
         <v>22</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>819</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>820</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -6761,7 +6753,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>263</v>
@@ -6773,16 +6765,16 @@
         <v>120</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>561</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -6791,34 +6783,34 @@
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" ht="220.5">
       <c r="A9" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>460</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>461</v>
-      </c>
       <c r="H9" s="47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K9" s="39">
         <f t="shared" si="0"/>
@@ -6996,8 +6988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23385965-567E-43EE-93F3-EAFB72AEB251}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7020,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7041,7 +7033,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="204.75">
@@ -7049,10 +7041,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>58</v>
@@ -7064,13 +7056,13 @@
         <v>60</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -7082,10 +7074,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>264</v>
@@ -7097,13 +7089,13 @@
         <v>265</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="0">LEN(F3)</f>
@@ -7118,7 +7110,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>75</v>
@@ -7127,16 +7119,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>830</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>718</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>831</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -7151,7 +7143,7 @@
         <v>267</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>268</v>
@@ -7166,10 +7158,10 @@
         <v>266</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -7178,32 +7170,32 @@
     </row>
     <row r="6" spans="1:11" ht="220.5">
       <c r="A6" s="16" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -7215,10 +7207,10 @@
         <v>128</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>270</v>
+        <v>723</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>269</v>
@@ -7230,16 +7222,16 @@
         <v>127</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -7401,6 +7393,7 @@
     <hyperlink ref="H4" r:id="rId4" display="https://dl.ndl.go.jp/pid/2535733" xr:uid="{FCE2C7A0-9018-4269-80B2-770B2DC1E65D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7408,7 +7401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C851A318-DB45-4EB9-A67B-A4CDE7130A9B}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -7433,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7454,7 +7447,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="189">
@@ -7465,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>81</v>
@@ -7474,16 +7467,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K8" si="0">LEN(F2)</f>
@@ -7498,7 +7491,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>101</v>
@@ -7507,19 +7500,19 @@
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
@@ -7531,29 +7524,29 @@
         <v>102</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>584</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -7568,25 +7561,25 @@
         <v>107</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -7601,7 +7594,7 @@
         <v>133</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>134</v>
@@ -7610,16 +7603,16 @@
         <v>36</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H6" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>589</v>
-      </c>
       <c r="J6" s="24" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -7631,13 +7624,13 @@
         <v>136</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
@@ -7646,13 +7639,13 @@
         <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>840</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>841</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>842</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -7661,31 +7654,31 @@
     </row>
     <row r="8" spans="1:11" ht="173.25">
       <c r="A8" s="16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>738</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>739</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>741</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -7826,7 +7819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5542A0-7D04-45EF-A5DF-73B0B113521C}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -7851,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7872,7 +7865,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="189">
@@ -7883,25 +7876,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
@@ -7912,28 +7905,28 @@
         <v>50</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="173.25">
@@ -7944,10 +7937,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -7956,10 +7949,10 @@
         <v>105</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
@@ -7971,78 +7964,78 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>847</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="189">
       <c r="A6" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="189">
       <c r="A7" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="220.5">
@@ -8050,31 +8043,31 @@
         <v>129</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="189">
@@ -8085,10 +8078,10 @@
         <v>139</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>36</v>
@@ -8097,30 +8090,30 @@
         <v>131</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="204.75">
       <c r="A10" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>36</v>
@@ -8129,16 +8122,16 @@
         <v>137</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8279,8 +8272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4D60A2-B3C0-431C-B12C-F537F1F1F296}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8304,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -8325,7 +8318,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="189">
@@ -8333,13 +8326,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -8348,16 +8341,16 @@
         <v>111</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="204.75">
@@ -8365,10 +8358,10 @@
         <v>148</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>141</v>
@@ -8377,63 +8370,63 @@
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>748</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>747</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="193.5" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>166</v>
@@ -8442,42 +8435,42 @@
         <v>165</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="189">
       <c r="A6" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="236.25">
@@ -8485,10 +8478,10 @@
         <v>180</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>179</v>
@@ -8500,103 +8493,103 @@
         <v>178</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="220.5">
       <c r="A8" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="204.75">
       <c r="A9" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="236.25">
       <c r="A10" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="44" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="45" t="s">
+        <v>859</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>860</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>471</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>624</v>
-      </c>
-      <c r="I10" s="46" t="s">
+      <c r="J10" s="24" t="s">
         <v>861</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8720,6 +8713,7 @@
     <hyperlink ref="G8" r:id="rId4" display="https://www.youtube.com/watch?v=virSq0UoBTE" xr:uid="{34D59A38-32A4-4FC9-855A-FC945F6011C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -8751,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -8772,7 +8766,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="157.5">
@@ -8783,7 +8777,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>83</v>
@@ -8792,21 +8786,21 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>635</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
       <c r="A3" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>143</v>
@@ -8815,7 +8809,7 @@
         <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -8824,16 +8818,16 @@
         <v>171</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
@@ -8841,10 +8835,10 @@
         <v>158</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>159</v>
@@ -8853,48 +8847,48 @@
         <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>866</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
       <c r="A5" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="236.25">
@@ -8902,10 +8896,10 @@
         <v>173</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>174</v>
@@ -8917,46 +8911,46 @@
         <v>172</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="39" customFormat="1" ht="189">
       <c r="A7" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>465</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>466</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9102,7 +9096,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -9127,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9148,7 +9142,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="189">
@@ -9159,7 +9153,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>94</v>
@@ -9168,16 +9162,16 @@
         <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>871</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>649</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
@@ -9188,39 +9182,39 @@
         <v>113</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -9229,16 +9223,16 @@
         <v>126</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="204.75">
@@ -9249,7 +9243,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>142</v>
@@ -9261,16 +9255,16 @@
         <v>152</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="189">
@@ -9281,7 +9275,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>149</v>
@@ -9293,13 +9287,13 @@
         <v>151</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="189">
@@ -9307,10 +9301,10 @@
         <v>157</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>156</v>
@@ -9322,53 +9316,53 @@
         <v>153</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="189">
       <c r="A8" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>658</v>
-      </c>
       <c r="J8" s="29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="189">
       <c r="A9" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>647</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>36</v>
@@ -9377,13 +9371,13 @@
         <v>160</v>
       </c>
       <c r="H9" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>660</v>
-      </c>
       <c r="J9" s="29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="189">
@@ -9391,10 +9385,10 @@
         <v>170</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>169</v>
@@ -9403,19 +9397,19 @@
         <v>166</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>880</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9536,7 +9530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0746FFFB-7453-4902-954B-A46CFC9B7AC4}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -9562,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9583,7 +9577,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="204.75">
@@ -9594,7 +9588,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>147</v>
@@ -9606,16 +9600,16 @@
         <v>229</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
@@ -9626,7 +9620,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>146</v>
@@ -9635,17 +9629,17 @@
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="220.5">
@@ -9656,7 +9650,7 @@
         <v>196</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>197</v>
@@ -9668,16 +9662,16 @@
         <v>194</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.5">
@@ -9685,10 +9679,10 @@
         <v>228</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>227</v>
@@ -9700,13 +9694,13 @@
         <v>226</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>671</v>
-      </c>
       <c r="J5" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9893,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9914,7 +9908,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="236.25">
@@ -9922,10 +9916,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
@@ -9934,19 +9928,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="29" t="s">
         <v>764</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>765</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -9961,7 +9955,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -9973,16 +9967,16 @@
         <v>116</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K12" si="0">LEN(F3)</f>
@@ -9997,7 +9991,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>13</v>
@@ -10006,16 +10000,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -10030,7 +10024,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>21</v>
@@ -10039,16 +10033,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -10063,7 +10057,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>23</v>
@@ -10072,16 +10066,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -10096,7 +10090,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>29</v>
@@ -10105,17 +10099,17 @@
         <v>9</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -10127,10 +10121,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>31</v>
@@ -10139,16 +10133,16 @@
         <v>9</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -10160,10 +10154,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>117</v>
@@ -10172,16 +10166,16 @@
         <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I9" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>775</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>776</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -10193,10 +10187,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>35</v>
@@ -10205,13 +10199,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -10226,7 +10220,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>27</v>
@@ -10235,16 +10229,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -10256,10 +10250,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>33</v>
@@ -10268,16 +10262,16 @@
         <v>9</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>409</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -10329,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -10350,7 +10344,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="252">
@@ -10361,7 +10355,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>161</v>
@@ -10373,13 +10367,13 @@
         <v>162</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="236.25">
@@ -10387,10 +10381,10 @@
         <v>185</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>187</v>
@@ -10402,13 +10396,13 @@
         <v>184</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>887</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="252">
@@ -10416,28 +10410,28 @@
         <v>186</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>679</v>
-      </c>
       <c r="I4" s="24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="236.25">
@@ -10445,10 +10439,10 @@
         <v>188</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>189</v>
@@ -10457,19 +10451,19 @@
         <v>166</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="204.75">
@@ -10477,10 +10471,10 @@
         <v>191</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>190</v>
@@ -10489,19 +10483,19 @@
         <v>166</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>681</v>
-      </c>
       <c r="J6" s="29" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10686,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -10707,7 +10701,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25">
@@ -10715,13 +10709,13 @@
         <v>193</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>166</v>
@@ -10730,77 +10724,77 @@
         <v>192</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
       <c r="A3" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>893</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="204.75">
       <c r="A4" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11002,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11023,7 +11017,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="252">
@@ -11031,10 +11025,10 @@
         <v>199</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>198</v>
@@ -11046,16 +11040,16 @@
         <v>200</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="330.75">
@@ -11063,10 +11057,10 @@
         <v>201</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>202</v>
@@ -11078,16 +11072,16 @@
         <v>203</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
@@ -11095,10 +11089,10 @@
         <v>206</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>204</v>
@@ -11110,62 +11104,62 @@
         <v>205</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="204.75">
       <c r="A5" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>166</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>364</v>
-      </c>
       <c r="H5" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="267.75">
       <c r="A6" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>166</v>
@@ -11174,16 +11168,16 @@
         <v>209</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11376,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11397,7 +11391,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220.5">
@@ -11405,10 +11399,10 @@
         <v>182</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>183</v>
@@ -11420,13 +11414,13 @@
         <v>181</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="220.5">
@@ -11434,10 +11428,10 @@
         <v>177</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>176</v>
@@ -11446,33 +11440,33 @@
         <v>166</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>377</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>166</v>
@@ -11481,27 +11475,27 @@
         <v>210</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
       <c r="A5" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>373</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>374</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>166</v>
@@ -11510,27 +11504,27 @@
         <v>213</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="204.75">
       <c r="A6" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>379</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>380</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>166</v>
@@ -11539,13 +11533,13 @@
         <v>212</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11732,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11753,21 +11747,21 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220.5">
       <c r="A2" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>166</v>
@@ -11776,27 +11770,27 @@
         <v>207</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
       <c r="A3" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>166</v>
@@ -11805,27 +11799,27 @@
         <v>208</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>922</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>387</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>388</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>166</v>
@@ -11835,10 +11829,10 @@
       </c>
       <c r="G4" s="9"/>
       <c r="I4" s="24" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
@@ -11846,10 +11840,10 @@
         <v>216</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>215</v>
@@ -11862,13 +11856,13 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="21" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="220.5">
@@ -11876,10 +11870,10 @@
         <v>217</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>218</v>
@@ -11891,13 +11885,13 @@
         <v>219</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="204.75">
@@ -11905,10 +11899,10 @@
         <v>220</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>221</v>
@@ -11920,13 +11914,13 @@
         <v>222</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="189">
@@ -11934,10 +11928,10 @@
         <v>223</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>225</v>
@@ -11949,14 +11943,14 @@
         <v>224</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12105,7 +12099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9EF785-2A3E-43CE-AF82-EAEC7E770D24}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -12342,10 +12336,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -12366,7 +12360,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189">
@@ -12374,10 +12368,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>123</v>
@@ -12386,16 +12380,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>412</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M2">
         <f>LEN(F2)</f>
@@ -12410,7 +12404,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>67</v>
@@ -12422,13 +12416,13 @@
         <v>233</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3" si="0">LEN(F3)</f>
@@ -12440,10 +12434,10 @@
         <v>234</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>167</v>
@@ -12455,13 +12449,13 @@
         <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M4">
         <f>LEN(F4)</f>
@@ -12470,30 +12464,30 @@
     </row>
     <row r="5" spans="1:13" ht="173.25">
       <c r="A5" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>503</v>
-      </c>
       <c r="D5" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="43" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>458</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>459</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -12534,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -12555,7 +12549,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="204.75">
@@ -12563,10 +12557,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>509</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>510</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>87</v>
@@ -12575,19 +12569,19 @@
         <v>36</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L2">
         <f>LEN(F2)</f>
@@ -13214,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -13235,7 +13229,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="189">
@@ -13243,10 +13237,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>516</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>517</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>236</v>
@@ -13258,13 +13252,13 @@
         <v>235</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I2" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>786</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>787</v>
       </c>
       <c r="L2">
         <f>LEN(F2)</f>
@@ -13276,10 +13270,10 @@
         <v>239</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>237</v>
@@ -13291,13 +13285,13 @@
         <v>238</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">LEN(F3)</f>
@@ -13309,7 +13303,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>39</v>
@@ -13324,13 +13318,13 @@
         <v>44</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -13342,7 +13336,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>39</v>
@@ -13354,19 +13348,19 @@
         <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>416</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -13393,13 +13387,13 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -13414,7 +13408,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>119</v>
@@ -13423,16 +13417,16 @@
         <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="G7" t="s">
         <v>418</v>
       </c>
-      <c r="G7" t="s">
-        <v>419</v>
-      </c>
       <c r="I7" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -13623,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -13644,7 +13638,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="189">
@@ -13662,16 +13656,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L3" si="0">LEN(F2)</f>
@@ -13686,7 +13680,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>242</v>
@@ -13698,13 +13692,13 @@
         <v>124</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>800</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>801</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -13713,29 +13707,29 @@
     </row>
     <row r="4" spans="1:12" s="39" customFormat="1" ht="204.75">
       <c r="A4" s="44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>756</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>757</v>
-      </c>
       <c r="D4" s="44" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="45" t="s">
+        <v>801</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>795</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="J4" s="46" t="s">
         <v>802</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>796</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>759</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -13930,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -13951,7 +13945,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="173.25">
@@ -13962,7 +13956,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>63</v>
@@ -13975,17 +13969,17 @@
       </c>
       <c r="G2" s="11"/>
       <c r="I2" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>804</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>805</v>
       </c>
       <c r="L2">
         <f>LEN(F2)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="220.5">
+    <row r="3" spans="1:12" ht="173.25">
       <c r="A3" s="16" t="s">
         <v>77</v>
       </c>
@@ -13993,7 +13987,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>76</v>
@@ -14002,16 +13996,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>422</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L3">
         <f>LEN(F3)</f>
@@ -14026,7 +14020,7 @@
         <v>249</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>245</v>
@@ -14039,13 +14033,13 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L8" si="0">LEN(F4)</f>
@@ -14057,10 +14051,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>244</v>
@@ -14069,16 +14063,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>432</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -14093,7 +14087,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>250</v>
@@ -14102,16 +14096,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -14123,10 +14117,10 @@
         <v>248</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>247</v>
@@ -14135,16 +14129,16 @@
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>427</v>
-      </c>
       <c r="I7" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -14159,7 +14153,7 @@
         <v>251</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>96</v>
@@ -14168,19 +14162,19 @@
         <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>

--- a/ancient_foods.xlsx
+++ b/ancient_foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProFile\L3303\Desktop\創意從這開始\115社會科交接\歷史\Hismap\樣章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A63DCA-641E-423A-88FD-774CB86E43A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE82FE6-824E-4794-9232-001A6D0176A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="西元前20000年" sheetId="1" r:id="rId1"/>
@@ -715,11 +715,6 @@
   </si>
   <si>
     <t>冰箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美國、紐澳如何躍升
-牛肉產量大宗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4964,6 +4959,10 @@
   </si>
   <si>
     <t>中國麵食的普及</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國、紐澳如何躍升牛肉產量大宗？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5712,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5733,7 +5732,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="110.25">
@@ -5753,16 +5752,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -5771,31 +5770,31 @@
     </row>
     <row r="3" spans="1:11" ht="94.5">
       <c r="A3" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K3">
         <f>LEN(F3)</f>
@@ -5841,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5862,7 +5861,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="173.25">
@@ -5870,28 +5869,28 @@
         <v>51</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>434</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="157.5">
@@ -5902,25 +5901,25 @@
         <v>50</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>436</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="204.75">
@@ -5931,26 +5930,26 @@
         <v>50</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
@@ -5961,7 +5960,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>49</v>
@@ -5970,17 +5969,17 @@
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="220.5">
@@ -5991,25 +5990,25 @@
         <v>50</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="I6" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="173.25">
@@ -6020,28 +6019,28 @@
         <v>50</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>546</v>
-      </c>
       <c r="J7" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="177" customHeight="1">
@@ -6052,10 +6051,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>9</v>
@@ -6065,13 +6064,13 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="10" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="204.75">
@@ -6082,25 +6081,25 @@
         <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="I9" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6284,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6517,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6538,7 +6537,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="189">
@@ -6546,31 +6545,31 @@
         <v>55</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>718</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>822</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>823</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -6585,10 +6584,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
@@ -6597,13 +6596,13 @@
         <v>97</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="0">LEN(F3)</f>
@@ -6615,13 +6614,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -6630,13 +6629,13 @@
         <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -6648,28 +6647,28 @@
         <v>89</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="H5" t="s">
         <v>444</v>
       </c>
-      <c r="H5" t="s">
-        <v>445</v>
-      </c>
       <c r="I5" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -6681,10 +6680,10 @@
         <v>90</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>91</v>
@@ -6696,13 +6695,13 @@
         <v>98</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I6" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>820</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>821</v>
       </c>
       <c r="K6">
         <f>LEN(F6)</f>
@@ -6717,28 +6716,28 @@
         <v>22</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>818</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>819</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -6753,10 +6752,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
@@ -6765,16 +6764,16 @@
         <v>120</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>560</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -6783,34 +6782,34 @@
     </row>
     <row r="9" spans="1:11" s="39" customFormat="1" ht="220.5">
       <c r="A9" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>459</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>460</v>
-      </c>
       <c r="H9" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="K9" s="39">
         <f t="shared" si="0"/>
@@ -6988,7 +6987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23385965-567E-43EE-93F3-EAFB72AEB251}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7012,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7033,7 +7032,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="204.75">
@@ -7041,10 +7040,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>58</v>
@@ -7056,13 +7055,13 @@
         <v>60</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -7074,28 +7073,28 @@
         <v>59</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" si="0">LEN(F3)</f>
@@ -7107,10 +7106,10 @@
         <v>73</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>75</v>
@@ -7119,16 +7118,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>829</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>830</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -7140,13 +7139,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
@@ -7155,13 +7154,13 @@
         <v>125</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -7170,32 +7169,32 @@
     </row>
     <row r="6" spans="1:11" ht="220.5">
       <c r="A6" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -7207,13 +7206,13 @@
         <v>128</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
@@ -7222,16 +7221,16 @@
         <v>127</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -7426,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7447,7 +7446,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="189">
@@ -7458,7 +7457,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>81</v>
@@ -7467,16 +7466,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K8" si="0">LEN(F2)</f>
@@ -7491,7 +7490,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>101</v>
@@ -7500,19 +7499,19 @@
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
@@ -7524,29 +7523,29 @@
         <v>102</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>583</v>
-      </c>
       <c r="D4" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="21" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -7561,25 +7560,25 @@
         <v>107</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -7594,7 +7593,7 @@
         <v>133</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>134</v>
@@ -7603,16 +7602,16 @@
         <v>36</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H6" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>588</v>
-      </c>
       <c r="J6" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -7624,13 +7623,13 @@
         <v>136</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
@@ -7639,13 +7638,13 @@
         <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I7" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>840</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>841</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -7654,31 +7653,31 @@
     </row>
     <row r="8" spans="1:11" ht="173.25">
       <c r="A8" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>737</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>738</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G8" t="s">
+        <v>738</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -7844,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -7865,7 +7864,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="189">
@@ -7876,25 +7875,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
@@ -7905,28 +7904,28 @@
         <v>50</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="173.25">
@@ -7937,10 +7936,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -7949,10 +7948,10 @@
         <v>105</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
@@ -7964,78 +7963,78 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>598</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>846</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>599</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="189">
       <c r="A6" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="189">
       <c r="A7" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="220.5">
@@ -8043,31 +8042,31 @@
         <v>129</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="189">
@@ -8078,10 +8077,10 @@
         <v>139</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>36</v>
@@ -8090,30 +8089,30 @@
         <v>131</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="204.75">
       <c r="A10" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>36</v>
@@ -8122,16 +8121,16 @@
         <v>137</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8297,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -8318,7 +8317,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="189">
@@ -8326,13 +8325,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -8341,16 +8340,16 @@
         <v>111</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="204.75">
@@ -8358,10 +8357,10 @@
         <v>148</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>141</v>
@@ -8370,226 +8369,226 @@
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>746</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="193.5" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="189">
       <c r="A6" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="236.25">
       <c r="A7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="220.5">
       <c r="A8" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="204.75">
       <c r="A9" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="39" customFormat="1" ht="236.25">
       <c r="A10" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="45" t="s">
+        <v>858</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>622</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="I10" s="46" t="s">
+      <c r="J10" s="24" t="s">
         <v>860</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -8721,7 +8720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B96B29-FC92-489B-B36F-25CE6B9B8B75}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8745,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -8766,7 +8765,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="157.5">
@@ -8777,7 +8776,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>83</v>
@@ -8786,21 +8785,21 @@
         <v>9</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>634</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
       <c r="A3" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>143</v>
@@ -8809,148 +8808,148 @@
         <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>159</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>865</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
       <c r="A5" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="236.25">
       <c r="A6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>174</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H6" s="32"/>
       <c r="I6" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="39" customFormat="1" ht="189">
       <c r="A7" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>464</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>465</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9121,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9142,7 +9141,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="189">
@@ -9153,7 +9152,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>94</v>
@@ -9162,16 +9161,16 @@
         <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>870</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>648</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
@@ -9182,39 +9181,39 @@
         <v>113</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -9223,16 +9222,16 @@
         <v>126</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="204.75">
@@ -9243,7 +9242,7 @@
         <v>138</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>142</v>
@@ -9255,16 +9254,16 @@
         <v>152</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="189">
@@ -9275,7 +9274,7 @@
         <v>155</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>149</v>
@@ -9287,13 +9286,13 @@
         <v>151</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="189">
@@ -9301,10 +9300,10 @@
         <v>157</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>156</v>
@@ -9316,100 +9315,100 @@
         <v>153</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="189">
       <c r="A8" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>657</v>
-      </c>
       <c r="J8" s="29" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="189">
       <c r="A9" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>646</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H9" s="28" t="s">
+        <v>657</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>659</v>
-      </c>
       <c r="J9" s="29" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="189">
       <c r="A10" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>879</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>661</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9556,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9577,18 +9576,18 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="204.75">
       <c r="A2" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>147</v>
@@ -9597,19 +9596,19 @@
         <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
@@ -9620,7 +9619,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>146</v>
@@ -9629,78 +9628,78 @@
         <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="220.5">
       <c r="A4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="C4" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>197</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="409.5">
       <c r="A5" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="I5" s="24" t="s">
-        <v>670</v>
-      </c>
       <c r="J5" s="29" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9887,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -9908,7 +9907,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="236.25">
@@ -9916,10 +9915,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
@@ -9928,19 +9927,19 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="29" t="s">
         <v>763</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>764</v>
       </c>
       <c r="K2">
         <f>LEN(F2)</f>
@@ -9955,7 +9954,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -9967,16 +9966,16 @@
         <v>116</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K12" si="0">LEN(F3)</f>
@@ -9991,7 +9990,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>13</v>
@@ -10000,16 +9999,16 @@
         <v>9</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -10024,7 +10023,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>21</v>
@@ -10033,16 +10032,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -10057,7 +10056,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>23</v>
@@ -10066,16 +10065,16 @@
         <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -10090,7 +10089,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>29</v>
@@ -10099,17 +10098,17 @@
         <v>9</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -10121,10 +10120,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>31</v>
@@ -10133,16 +10132,16 @@
         <v>9</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -10154,10 +10153,10 @@
         <v>24</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>117</v>
@@ -10166,16 +10165,16 @@
         <v>9</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I9" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="J9" s="29" t="s">
         <v>774</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>775</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -10187,10 +10186,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>35</v>
@@ -10199,13 +10198,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -10220,7 +10219,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>27</v>
@@ -10229,16 +10228,16 @@
         <v>9</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -10250,10 +10249,10 @@
         <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>33</v>
@@ -10262,16 +10261,16 @@
         <v>9</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>408</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -10323,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -10344,158 +10343,158 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="252">
       <c r="A2" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="236.25">
       <c r="A3" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>674</v>
-      </c>
       <c r="I3" s="24" t="s">
+        <v>885</v>
+      </c>
+      <c r="J3" s="29" t="s">
         <v>886</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="252">
       <c r="A4" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>677</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>678</v>
-      </c>
       <c r="I4" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="236.25">
       <c r="A5" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>189</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="204.75">
       <c r="A6" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>680</v>
-      </c>
       <c r="J6" s="29" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10680,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -10701,100 +10700,100 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="236.25">
       <c r="A2" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>753</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>683</v>
-      </c>
       <c r="J2" s="24" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
       <c r="A3" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>892</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="204.75">
       <c r="A4" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10996,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11017,167 +11016,167 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="252">
       <c r="A2" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="330.75">
       <c r="A3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>203</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="204.75">
       <c r="A5" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>365</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>363</v>
-      </c>
       <c r="H5" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="267.75">
       <c r="A6" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>367</v>
-      </c>
       <c r="H6" s="21" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11370,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11391,155 +11390,155 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220.5">
       <c r="A2" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>183</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="220.5">
       <c r="A3" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G3" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>376</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
       <c r="A5" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>373</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="204.75">
       <c r="A6" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>379</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11726,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -11747,210 +11746,210 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="220.5">
       <c r="A2" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="189">
       <c r="A3" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>387</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="9"/>
       <c r="I4" s="24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="189">
       <c r="A5" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="220.5">
       <c r="A6" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="G6" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="204.75">
       <c r="A7" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="G7" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="189">
       <c r="A8" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>927</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>928</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="G8" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12336,10 +12335,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -12360,7 +12359,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="189">
@@ -12368,10 +12367,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>123</v>
@@ -12380,16 +12379,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>410</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>411</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M2">
         <f>LEN(F2)</f>
@@ -12404,7 +12403,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>67</v>
@@ -12413,16 +12412,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3" si="0">LEN(F3)</f>
@@ -12431,31 +12430,31 @@
     </row>
     <row r="4" spans="1:13" ht="157.5">
       <c r="A4" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="G4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M4">
         <f>LEN(F4)</f>
@@ -12464,30 +12463,30 @@
     </row>
     <row r="5" spans="1:13" ht="173.25">
       <c r="A5" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>502</v>
-      </c>
       <c r="D5" s="40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>457</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>458</v>
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -12528,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -12549,7 +12548,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="204.75">
@@ -12557,10 +12556,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>508</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>509</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>87</v>
@@ -12569,19 +12568,19 @@
         <v>36</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L2">
         <f>LEN(F2)</f>
@@ -13208,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -13229,7 +13228,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="189">
@@ -13237,28 +13236,28 @@
         <v>37</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>516</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I2" s="24" t="s">
+        <v>784</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>785</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>786</v>
       </c>
       <c r="L2">
         <f>LEN(F2)</f>
@@ -13267,31 +13266,31 @@
     </row>
     <row r="3" spans="1:12" ht="189">
       <c r="A3" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L7" si="0">LEN(F3)</f>
@@ -13303,13 +13302,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>9</v>
@@ -13318,13 +13317,13 @@
         <v>44</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
@@ -13336,31 +13335,31 @@
         <v>57</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>415</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -13387,13 +13386,13 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -13408,7 +13407,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>119</v>
@@ -13417,16 +13416,16 @@
         <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G7" t="s">
         <v>417</v>
       </c>
-      <c r="G7" t="s">
-        <v>418</v>
-      </c>
       <c r="I7" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -13617,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -13638,7 +13637,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="189">
@@ -13656,16 +13655,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L3" si="0">LEN(F2)</f>
@@ -13680,10 +13679,10 @@
         <v>85</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -13692,13 +13691,13 @@
         <v>124</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>798</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>799</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>800</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
@@ -13707,29 +13706,29 @@
     </row>
     <row r="4" spans="1:12" s="39" customFormat="1" ht="204.75">
       <c r="A4" s="44" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>755</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>756</v>
-      </c>
       <c r="D4" s="44" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="45" t="s">
+        <v>800</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>794</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>757</v>
+      </c>
+      <c r="J4" s="46" t="s">
         <v>801</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>795</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>758</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -13924,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -13945,7 +13944,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="173.25">
@@ -13956,7 +13955,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>63</v>
@@ -13965,14 +13964,14 @@
         <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" s="11"/>
       <c r="I2" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>803</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>804</v>
       </c>
       <c r="L2">
         <f>LEN(F2)</f>
@@ -13987,7 +13986,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>76</v>
@@ -13996,16 +13995,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>421</v>
-      </c>
       <c r="I3" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L3">
         <f>LEN(F3)</f>
@@ -14017,13 +14016,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>9</v>
@@ -14033,13 +14032,13 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L8" si="0">LEN(F4)</f>
@@ -14051,28 +14050,28 @@
         <v>64</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -14081,31 +14080,31 @@
     </row>
     <row r="6" spans="1:12" ht="141.75">
       <c r="A6" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -14114,31 +14113,31 @@
     </row>
     <row r="7" spans="1:12" ht="173.25">
       <c r="A7" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>426</v>
-      </c>
       <c r="I7" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
@@ -14150,10 +14149,10 @@
         <v>95</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>96</v>
@@ -14162,19 +14161,19 @@
         <v>36</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>

--- a/ancient_foods.xlsx
+++ b/ancient_foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProFile\L3303\Desktop\創意從這開始\115社會科交接\歷史\Hismap\樣章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE82FE6-824E-4794-9232-001A6D0176A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73782A9B-73BD-4FC5-90F0-273C6979379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="西元前20000年" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="934">
   <si>
     <t>地區</t>
   </si>
@@ -4891,10 +4891,6 @@
   </si>
   <si>
     <t>非洲；印度；中國</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>法國、義大利、西班牙、英國及中歐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5773,7 +5769,7 @@
         <v>231</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>174</v>
@@ -5816,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918C2F7-A36B-424C-A2AD-AF108182E5DF}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5868,8 +5864,8 @@
       <c r="A2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>917</v>
+      <c r="B2" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>535</v>
@@ -6254,6 +6250,7 @@
     <hyperlink ref="H7" r:id="rId3" display="https://artsandculture.google.com/asset/peasant-wedding-pieter-bruegel-the-elder/hgGvote2WI8P3w?hl=en" xr:uid="{7C02FA96-0CBA-451B-8957-0D12E0550129}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7040,7 +7037,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>565</v>
@@ -7073,7 +7070,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>567</v>
@@ -7169,7 +7166,7 @@
     </row>
     <row r="6" spans="1:11" ht="220.5">
       <c r="A6" s="16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>722</v>
@@ -7623,7 +7620,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>589</v>
@@ -8325,7 +8322,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>617</v>
@@ -8421,7 +8418,7 @@
         <v>308</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="19" t="s">
@@ -8448,7 +8445,7 @@
         <v>309</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>619</v>
@@ -8477,7 +8474,7 @@
         <v>179</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>620</v>
@@ -8506,7 +8503,7 @@
         <v>312</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>619</v>
@@ -8536,7 +8533,7 @@
         <v>315</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>621</v>
@@ -8566,7 +8563,7 @@
         <v>468</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="44" t="s">
@@ -8720,7 +8717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B96B29-FC92-489B-B36F-25CE6B9B8B75}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8831,10 +8828,10 @@
     </row>
     <row r="4" spans="1:10" ht="189">
       <c r="A4" s="17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>625</v>
@@ -8866,7 +8863,7 @@
         <v>320</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>592</v>
@@ -8895,7 +8892,7 @@
         <v>172</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>592</v>
@@ -9384,7 +9381,7 @@
         <v>169</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>592</v>
@@ -9678,7 +9675,7 @@
         <v>227</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>665</v>
@@ -10249,7 +10246,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>497</v>
@@ -10380,7 +10377,7 @@
         <v>184</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>672</v>
@@ -10409,7 +10406,7 @@
         <v>185</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>672</v>
@@ -10438,7 +10435,7 @@
         <v>187</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>672</v>
@@ -10470,7 +10467,7 @@
         <v>190</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>672</v>
@@ -10708,7 +10705,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>681</v>
@@ -10740,7 +10737,7 @@
         <v>358</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>681</v>
@@ -10772,7 +10769,7 @@
         <v>356</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>681</v>
@@ -11024,7 +11021,7 @@
         <v>198</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>680</v>
@@ -11056,7 +11053,7 @@
         <v>200</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>680</v>
@@ -11088,7 +11085,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>680</v>
@@ -11120,7 +11117,7 @@
         <v>363</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>680</v>
@@ -11152,7 +11149,7 @@
         <v>365</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>680</v>
@@ -11398,7 +11395,7 @@
         <v>181</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>681</v>
@@ -11427,7 +11424,7 @@
         <v>176</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>680</v>
@@ -11459,7 +11456,7 @@
         <v>376</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>680</v>
@@ -11488,7 +11485,7 @@
         <v>371</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>680</v>
@@ -11517,7 +11514,7 @@
         <v>377</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>680</v>
@@ -11754,7 +11751,7 @@
         <v>383</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>681</v>
@@ -11783,7 +11780,7 @@
         <v>384</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>680</v>
@@ -11812,7 +11809,7 @@
         <v>385</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>680</v>
@@ -11839,7 +11836,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>680</v>
@@ -11869,7 +11866,7 @@
         <v>216</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>680</v>
@@ -11898,7 +11895,7 @@
         <v>219</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>680</v>
@@ -11927,7 +11924,7 @@
         <v>222</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>680</v>
@@ -12433,7 +12430,7 @@
         <v>233</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>502</v>

--- a/ancient_foods.xlsx
+++ b/ancient_foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProFile\L3303\Desktop\創意從這開始\115社會科交接\歷史\Hismap\樣章\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73782A9B-73BD-4FC5-90F0-273C6979379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC8FBD-1CDE-4849-9F0D-92737B10684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="西元前20000年" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="935">
   <si>
     <t>地區</t>
   </si>
@@ -4959,6 +4959,10 @@
   </si>
   <si>
     <t>美國、紐澳如何躍升牛肉產量大宗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥倫比亞波哥大</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5812,7 +5816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6918C2F7-A36B-424C-A2AD-AF108182E5DF}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9857,8 +9861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28388CA6-1108-4729-8582-ED08CEADA71D}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10213,7 +10217,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>934</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>496</v>
